--- a/Mappings/Vaccination - STU3.xlsx
+++ b/Mappings/Vaccination - STU3.xlsx
@@ -206,7 +206,7 @@
     <t>Immunization.extension</t>
   </si>
   <si>
-    <t>Need to make one valueset containing al productcodesystems</t>
+    <t>Need to make one valueset containing al productcodesystems or sliced vaccineCode.coding?</t>
   </si>
 </sst>
 </file>
@@ -883,7 +883,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -939,7 +939,7 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" ht="25.5">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -987,7 +987,7 @@
       </c>
       <c r="K4" s="22"/>
     </row>
-    <row r="5" spans="1:11" ht="25.5">
+    <row r="5" spans="1:11">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -1008,11 +1008,9 @@
       <c r="J5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="K5" s="25"/>
+    </row>
+    <row r="6" spans="1:11" ht="25.5">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -1033,7 +1031,9 @@
       <c r="J6" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="25"/>
+      <c r="K6" s="25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="51">
       <c r="A7" s="10">

--- a/Mappings/Vaccination - STU3.xlsx
+++ b/Mappings/Vaccination - STU3.xlsx
@@ -194,19 +194,19 @@
     <t>Immunization</t>
   </si>
   <si>
-    <t xml:space="preserve">The resource ImmunizationRecommendation contains too many mandatory elements that are not mentioned in the ZIB's. Therefore we use an extension.  </t>
-  </si>
-  <si>
-    <t>ZIB: mentions in the concept definition that an Organization can be used to indicate where the vaccination took place. However, there is no reference modelled: BTIS ZIB-567 FHIR: Reference only to Practititoner. Not to Organization. Gforge ticket? There is a location element...</t>
-  </si>
-  <si>
     <t>Immunization.practitioner.actor</t>
   </si>
   <si>
-    <t>Immunization.extension</t>
-  </si>
-  <si>
-    <t>Need to make one valueset containing al productcodesystems or sliced vaccineCode.coding?</t>
+    <t>ImmunizationRecommendation.recommendation.date</t>
+  </si>
+  <si>
+    <t>ZIB-594 - Granulariteit ZIB Vaccinatie – GewensteDatumHervaccinatie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZIB-567 - Context reference Zorgaanbieder ontbreekt                                            Reference only to Practititoner. Not to Organization. Gforge ticket? </t>
+  </si>
+  <si>
+    <t>ZIB-595 - Informatiebron vaccinatie</t>
   </si>
 </sst>
 </file>
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -939,7 +939,7 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="25.5">
+    <row r="3" spans="1:11">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -960,9 +960,7 @@
       <c r="J3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="10">
@@ -1029,13 +1027,13 @@
         <v>5</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K6" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="51">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="25.5">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -1054,10 +1052,10 @@
         <v>10</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15">
@@ -1082,6 +1080,11 @@
         <v>22</v>
       </c>
       <c r="K8" s="24"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="K9" s="21" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="B10" s="23"/>
